--- a/app/src/test/resources/testdata/testData.xlsx
+++ b/app/src/test/resources/testdata/testData.xlsx
@@ -4,7 +4,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="checkoutUsingExistingAccount" sheetId="1" r:id="rId1"/>
-    <sheet name="TestCase01" sheetId="2" r:id="rId2"/>
+    <sheet name="signUpWithPhoneNumber" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -444,13 +444,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>COUNTRY_CODE</v>
+      </c>
+      <c r="B1" t="str">
+        <v>OTP</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>IN</v>
+      </c>
+      <c r="B2" t="str">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>US</v>
+      </c>
+      <c r="B3" t="str">
+        <v>1111</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/test/resources/testdata/testData.xlsx
+++ b/app/src/test/resources/testdata/testData.xlsx
@@ -1,63 +1,440 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView windowWidth="18350" windowHeight="7510" activeTab="2"/>
+  </bookViews>
   <sheets>
     <sheet name="checkoutUsingExistingAccount" sheetId="1" r:id="rId1"/>
     <sheet name="signUpWithPhoneNumber" sheetId="2" r:id="rId2"/>
+    <sheet name="checkoutUsingNewAccount" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+  <si>
+    <t>PHONE_NUMBER</t>
+  </si>
+  <si>
+    <t>OTP</t>
+  </si>
+  <si>
+    <t>SEARCH_KEYWORD</t>
+  </si>
+  <si>
+    <t>PRODUCT_NAME</t>
+  </si>
+  <si>
+    <t>2124567891</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>Truly Free Laundry Washing</t>
+  </si>
+  <si>
+    <t>Truly Free Laundry Washing Machine Cleaner - Wash &amp; Cleans Front Load &amp; Top Load Washers -Tub Cleaner &amp; Deodorizer (1-Use)</t>
+  </si>
+  <si>
+    <t>COUNTRY_CODE</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Lip balm</t>
+  </si>
+  <si>
+    <t>Purely Peppermint Lip Balm  0.15 oz</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -65,18 +442,312 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,86 +1067,148 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>PHONE_NUMBER</v>
-      </c>
-      <c r="B1" t="str">
-        <v>OTP</v>
-      </c>
-      <c r="C1" t="str">
-        <v>SEARCH_KEYWORD</v>
-      </c>
-      <c r="D1" t="str">
-        <v>PRODUCT_NAME</v>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>2124567891</v>
-      </c>
-      <c r="B2" t="str">
-        <v>1111</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Truly Free Laundry Washing</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Truly Free Laundry Washing Machine Cleaner - Wash &amp; Cleans Front Load &amp; Top Load Washers -Tub Cleaner &amp; Deodorizer (1-Use)</v>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D2"/>
+    <ignoredError sqref="A1:D2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" outlineLevelRow="2" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>COUNTRY_CODE</v>
-      </c>
-      <c r="B1" t="str">
-        <v>OTP</v>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>IN</v>
-      </c>
-      <c r="B2" t="str">
-        <v>1111</v>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>US</v>
-      </c>
-      <c r="B3" t="str">
-        <v>1111</v>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B3"/>
+    <ignoredError sqref="A1:B3" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E$1:E$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="5" max="5" width="29.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:D2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/test/resources/testdata/testData.xlsx
+++ b/app/src/test/resources/testdata/testData.xlsx
@@ -1,64 +1,1677 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView windowWidth="18350" windowHeight="7510"/>
+  </bookViews>
   <sheets>
     <sheet name="checkoutUsingExistingAccount" sheetId="1" r:id="rId1"/>
     <sheet name="signUpWithPhoneNumber" sheetId="2" r:id="rId2"/>
     <sheet name="checkoutUsingNewAccount" sheetId="3" r:id="rId3"/>
+    <sheet name="createPostWithLocalFiles" sheetId="4" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="425">
+  <si>
+    <t>PHONE_NUMBER</t>
+  </si>
+  <si>
+    <t>OTP</t>
+  </si>
+  <si>
+    <t>SEARCH_KEYWORD</t>
+  </si>
+  <si>
+    <t>PRODUCT_NAME</t>
+  </si>
+  <si>
+    <t>2124567891</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>Truly Free Laundry Washing</t>
+  </si>
+  <si>
+    <t>Truly Free Laundry Washing Machine Cleaner - Wash &amp; Cleans Front Load &amp; Top Load Washers -Tub Cleaner &amp; Deodorizer (1-Use)</t>
+  </si>
+  <si>
+    <t>COUNTRY_CODE</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Lip balm</t>
+  </si>
+  <si>
+    <t>Purely Peppermint Lip Balm  0.15 oz</t>
+  </si>
+  <si>
+    <t>3126179358</t>
+  </si>
+  <si>
+    <t>3058198167</t>
+  </si>
+  <si>
+    <t>7026152528</t>
+  </si>
+  <si>
+    <t>2012224381</t>
+  </si>
+  <si>
+    <t>8184107575</t>
+  </si>
+  <si>
+    <t>8184150580</t>
+  </si>
+  <si>
+    <t>2133206193</t>
+  </si>
+  <si>
+    <t>2013172907</t>
+  </si>
+  <si>
+    <t>3054139633</t>
+  </si>
+  <si>
+    <t>3128136663</t>
+  </si>
+  <si>
+    <t>8182158568</t>
+  </si>
+  <si>
+    <t>2022143208</t>
+  </si>
+  <si>
+    <t>6465169702</t>
+  </si>
+  <si>
+    <t>4154429971</t>
+  </si>
+  <si>
+    <t>3059689298</t>
+  </si>
+  <si>
+    <t>6175380234</t>
+  </si>
+  <si>
+    <t>2029212398</t>
+  </si>
+  <si>
+    <t>6179999431</t>
+  </si>
+  <si>
+    <t>2022663191</t>
+  </si>
+  <si>
+    <t>2138603991</t>
+  </si>
+  <si>
+    <t>4157186263</t>
+  </si>
+  <si>
+    <t>3054138823</t>
+  </si>
+  <si>
+    <t>3052142451</t>
+  </si>
+  <si>
+    <t>6462153670</t>
+  </si>
+  <si>
+    <t>7023685384</t>
+  </si>
+  <si>
+    <t>3054579943</t>
+  </si>
+  <si>
+    <t>2135713369</t>
+  </si>
+  <si>
+    <t>2016983147</t>
+  </si>
+  <si>
+    <t>3059237125</t>
+  </si>
+  <si>
+    <t>8188918976</t>
+  </si>
+  <si>
+    <t>8189394597</t>
+  </si>
+  <si>
+    <t>3056237127</t>
+  </si>
+  <si>
+    <t>6465313347</t>
+  </si>
+  <si>
+    <t>4153126736</t>
+  </si>
+  <si>
+    <t>2136151664</t>
+  </si>
+  <si>
+    <t>6463129048</t>
+  </si>
+  <si>
+    <t>3126207894</t>
+  </si>
+  <si>
+    <t>7025159132</t>
+  </si>
+  <si>
+    <t>4158162972</t>
+  </si>
+  <si>
+    <t>7028110003</t>
+  </si>
+  <si>
+    <t>7026184413</t>
+  </si>
+  <si>
+    <t>6173111019</t>
+  </si>
+  <si>
+    <t>3055855193</t>
+  </si>
+  <si>
+    <t>2137954272</t>
+  </si>
+  <si>
+    <t>2138863148</t>
+  </si>
+  <si>
+    <t>6465412996</t>
+  </si>
+  <si>
+    <t>3052209992</t>
+  </si>
+  <si>
+    <t>3056830651</t>
+  </si>
+  <si>
+    <t>3055147623</t>
+  </si>
+  <si>
+    <t>2025151300</t>
+  </si>
+  <si>
+    <t>2125128073</t>
+  </si>
+  <si>
+    <t>2029801891</t>
+  </si>
+  <si>
+    <t>2025131499</t>
+  </si>
+  <si>
+    <t>2132130692</t>
+  </si>
+  <si>
+    <t>6469781378</t>
+  </si>
+  <si>
+    <t>2024111591</t>
+  </si>
+  <si>
+    <t>7022116435</t>
+  </si>
+  <si>
+    <t>2017115333</t>
+  </si>
+  <si>
+    <t>2027928468</t>
+  </si>
+  <si>
+    <t>6469199091</t>
+  </si>
+  <si>
+    <t>6507118173</t>
+  </si>
+  <si>
+    <t>3052446728</t>
+  </si>
+  <si>
+    <t>6502101597</t>
+  </si>
+  <si>
+    <t>2136468405</t>
+  </si>
+  <si>
+    <t>2013211541</t>
+  </si>
+  <si>
+    <t>7022117223</t>
+  </si>
+  <si>
+    <t>6173470851</t>
+  </si>
+  <si>
+    <t>2123175768</t>
+  </si>
+  <si>
+    <t>2126678562</t>
+  </si>
+  <si>
+    <t>2125130480</t>
+  </si>
+  <si>
+    <t>6504963262</t>
+  </si>
+  <si>
+    <t>2023103590</t>
+  </si>
+  <si>
+    <t>3053792544</t>
+  </si>
+  <si>
+    <t>4158190620</t>
+  </si>
+  <si>
+    <t>4155206643</t>
+  </si>
+  <si>
+    <t>7026138817</t>
+  </si>
+  <si>
+    <t>2019148239</t>
+  </si>
+  <si>
+    <t>2022127391</t>
+  </si>
+  <si>
+    <t>3057107547</t>
+  </si>
+  <si>
+    <t>3124788479</t>
+  </si>
+  <si>
+    <t>2023155899</t>
+  </si>
+  <si>
+    <t>2027177049</t>
+  </si>
+  <si>
+    <t>2128182936</t>
+  </si>
+  <si>
+    <t>2013153732</t>
+  </si>
+  <si>
+    <t>4159147159</t>
+  </si>
+  <si>
+    <t>3125197396</t>
+  </si>
+  <si>
+    <t>7023295269</t>
+  </si>
+  <si>
+    <t>4154166127</t>
+  </si>
+  <si>
+    <t>3122127671</t>
+  </si>
+  <si>
+    <t>6505501263</t>
+  </si>
+  <si>
+    <t>2136192989</t>
+  </si>
+  <si>
+    <t>8182702352</t>
+  </si>
+  <si>
+    <t>2127139152</t>
+  </si>
+  <si>
+    <t>6467134507</t>
+  </si>
+  <si>
+    <t>2026214144</t>
+  </si>
+  <si>
+    <t>8188131877</t>
+  </si>
+  <si>
+    <t>6175139375</t>
+  </si>
+  <si>
+    <t>8182671742</t>
+  </si>
+  <si>
+    <t>3055120722</t>
+  </si>
+  <si>
+    <t>2127159559</t>
+  </si>
+  <si>
+    <t>2135147548</t>
+  </si>
+  <si>
+    <t>7022159078</t>
+  </si>
+  <si>
+    <t>3054314470</t>
+  </si>
+  <si>
+    <t>3058172998</t>
+  </si>
+  <si>
+    <t>6506129607</t>
+  </si>
+  <si>
+    <t>6506808075</t>
+  </si>
+  <si>
+    <t>7024172568</t>
+  </si>
+  <si>
+    <t>6178162098</t>
+  </si>
+  <si>
+    <t>3058120078</t>
+  </si>
+  <si>
+    <t>6178210854</t>
+  </si>
+  <si>
+    <t>3058196556</t>
+  </si>
+  <si>
+    <t>2122171812</t>
+  </si>
+  <si>
+    <t>2023900486</t>
+  </si>
+  <si>
+    <t>2137156026</t>
+  </si>
+  <si>
+    <t>3058139539</t>
+  </si>
+  <si>
+    <t>6465937356</t>
+  </si>
+  <si>
+    <t>8185116241</t>
+  </si>
+  <si>
+    <t>3058211379</t>
+  </si>
+  <si>
+    <t>2013957342</t>
+  </si>
+  <si>
+    <t>3052713992</t>
+  </si>
+  <si>
+    <t>3056824985</t>
+  </si>
+  <si>
+    <t>7023368118</t>
+  </si>
+  <si>
+    <t>2129146048</t>
+  </si>
+  <si>
+    <t>3129191169</t>
+  </si>
+  <si>
+    <t>2126155336</t>
+  </si>
+  <si>
+    <t>7022947949</t>
+  </si>
+  <si>
+    <t>7022169974</t>
+  </si>
+  <si>
+    <t>3057185814</t>
+  </si>
+  <si>
+    <t>3053607607</t>
+  </si>
+  <si>
+    <t>6468638382</t>
+  </si>
+  <si>
+    <t>6175655790</t>
+  </si>
+  <si>
+    <t>4159200556</t>
+  </si>
+  <si>
+    <t>2122285471</t>
+  </si>
+  <si>
+    <t>2126177637</t>
+  </si>
+  <si>
+    <t>2128797914</t>
+  </si>
+  <si>
+    <t>6503200957</t>
+  </si>
+  <si>
+    <t>2124780548</t>
+  </si>
+  <si>
+    <t>3057124555</t>
+  </si>
+  <si>
+    <t>6177124247</t>
+  </si>
+  <si>
+    <t>6467950506</t>
+  </si>
+  <si>
+    <t>3128813822</t>
+  </si>
+  <si>
+    <t>6505125639</t>
+  </si>
+  <si>
+    <t>2129175623</t>
+  </si>
+  <si>
+    <t>3059328812</t>
+  </si>
+  <si>
+    <t>6172130258</t>
+  </si>
+  <si>
+    <t>6508172721</t>
+  </si>
+  <si>
+    <t>2129141130</t>
+  </si>
+  <si>
+    <t>6468133330</t>
+  </si>
+  <si>
+    <t>3057626041</t>
+  </si>
+  <si>
+    <t>4156746119</t>
+  </si>
+  <si>
+    <t>2026838015</t>
+  </si>
+  <si>
+    <t>3054125130</t>
+  </si>
+  <si>
+    <t>3058158743</t>
+  </si>
+  <si>
+    <t>6177195524</t>
+  </si>
+  <si>
+    <t>3053176240</t>
+  </si>
+  <si>
+    <t>6464924619</t>
+  </si>
+  <si>
+    <t>6173139124</t>
+  </si>
+  <si>
+    <t>2135192320</t>
+  </si>
+  <si>
+    <t>4153195291</t>
+  </si>
+  <si>
+    <t>4156131882</t>
+  </si>
+  <si>
+    <t>6507794008</t>
+  </si>
+  <si>
+    <t>7026158219</t>
+  </si>
+  <si>
+    <t>3127124141</t>
+  </si>
+  <si>
+    <t>6179137092</t>
+  </si>
+  <si>
+    <t>2126408446</t>
+  </si>
+  <si>
+    <t>2123347830</t>
+  </si>
+  <si>
+    <t>2129132089</t>
+  </si>
+  <si>
+    <t>3122370260</t>
+  </si>
+  <si>
+    <t>6177210959</t>
+  </si>
+  <si>
+    <t>2022263217</t>
+  </si>
+  <si>
+    <t>3056197536</t>
+  </si>
+  <si>
+    <t>4158676835</t>
+  </si>
+  <si>
+    <t>2017212918</t>
+  </si>
+  <si>
+    <t>2125142795</t>
+  </si>
+  <si>
+    <t>4156812282</t>
+  </si>
+  <si>
+    <t>7026158455</t>
+  </si>
+  <si>
+    <t>2124202108</t>
+  </si>
+  <si>
+    <t>4152115199</t>
+  </si>
+  <si>
+    <t>2134245851</t>
+  </si>
+  <si>
+    <t>2129477508</t>
+  </si>
+  <si>
+    <t>3052187097</t>
+  </si>
+  <si>
+    <t>3054208862</t>
+  </si>
+  <si>
+    <t>6508152142</t>
+  </si>
+  <si>
+    <t>2123671385</t>
+  </si>
+  <si>
+    <t>3129896457</t>
+  </si>
+  <si>
+    <t>2018776219</t>
+  </si>
+  <si>
+    <t>3124541658</t>
+  </si>
+  <si>
+    <t>4153135408</t>
+  </si>
+  <si>
+    <t>2028304479</t>
+  </si>
+  <si>
+    <t>8182132235</t>
+  </si>
+  <si>
+    <t>7023407310</t>
+  </si>
+  <si>
+    <t>8189125159</t>
+  </si>
+  <si>
+    <t>6504832494</t>
+  </si>
+  <si>
+    <t>2133162628</t>
+  </si>
+  <si>
+    <t>7022246282</t>
+  </si>
+  <si>
+    <t>6176363894</t>
+  </si>
+  <si>
+    <t>2028591205</t>
+  </si>
+  <si>
+    <t>3057457179</t>
+  </si>
+  <si>
+    <t>3057536317</t>
+  </si>
+  <si>
+    <t>3053172092</t>
+  </si>
+  <si>
+    <t>2127952386</t>
+  </si>
+  <si>
+    <t>6468175722</t>
+  </si>
+  <si>
+    <t>8186151328</t>
+  </si>
+  <si>
+    <t>4154140942</t>
+  </si>
+  <si>
+    <t>6179352400</t>
+  </si>
+  <si>
+    <t>2023146244</t>
+  </si>
+  <si>
+    <t>2138430733</t>
+  </si>
+  <si>
+    <t>2025771405</t>
+  </si>
+  <si>
+    <t>2123489476</t>
+  </si>
+  <si>
+    <t>2013184268</t>
+  </si>
+  <si>
+    <t>2137111801</t>
+  </si>
+  <si>
+    <t>6508129668</t>
+  </si>
+  <si>
+    <t>8189670145</t>
+  </si>
+  <si>
+    <t>3059705556</t>
+  </si>
+  <si>
+    <t>4155484672</t>
+  </si>
+  <si>
+    <t>6173654259</t>
+  </si>
+  <si>
+    <t>3057189671</t>
+  </si>
+  <si>
+    <t>3058201942</t>
+  </si>
+  <si>
+    <t>3129579490</t>
+  </si>
+  <si>
+    <t>3122192840</t>
+  </si>
+  <si>
+    <t>2013186941</t>
+  </si>
+  <si>
+    <t>8183840329</t>
+  </si>
+  <si>
+    <t>2126629223</t>
+  </si>
+  <si>
+    <t>4153134444</t>
+  </si>
+  <si>
+    <t>3056160232</t>
+  </si>
+  <si>
+    <t>4158158191</t>
+  </si>
+  <si>
+    <t>6509106777</t>
+  </si>
+  <si>
+    <t>3052682288</t>
+  </si>
+  <si>
+    <t>2014888121</t>
+  </si>
+  <si>
+    <t>4155318019</t>
+  </si>
+  <si>
+    <t>2138131798</t>
+  </si>
+  <si>
+    <t>2124141562</t>
+  </si>
+  <si>
+    <t>8186188452</t>
+  </si>
+  <si>
+    <t>4152824023</t>
+  </si>
+  <si>
+    <t>6503989953</t>
+  </si>
+  <si>
+    <t>3054170231</t>
+  </si>
+  <si>
+    <t>3059108435</t>
+  </si>
+  <si>
+    <t>2027206256</t>
+  </si>
+  <si>
+    <t>2132169319</t>
+  </si>
+  <si>
+    <t>8186213085</t>
+  </si>
+  <si>
+    <t>6507120245</t>
+  </si>
+  <si>
+    <t>7023202899</t>
+  </si>
+  <si>
+    <t>6504136966</t>
+  </si>
+  <si>
+    <t>3125736056</t>
+  </si>
+  <si>
+    <t>2018190831</t>
+  </si>
+  <si>
+    <t>2136872619</t>
+  </si>
+  <si>
+    <t>4153369637</t>
+  </si>
+  <si>
+    <t>8188130362</t>
+  </si>
+  <si>
+    <t>7028134953</t>
+  </si>
+  <si>
+    <t>4158148031</t>
+  </si>
+  <si>
+    <t>7025113455</t>
+  </si>
+  <si>
+    <t>6469182744</t>
+  </si>
+  <si>
+    <t>4156669867</t>
+  </si>
+  <si>
+    <t>7022197055</t>
+  </si>
+  <si>
+    <t>3125851823</t>
+  </si>
+  <si>
+    <t>8182195774</t>
+  </si>
+  <si>
+    <t>2027161492</t>
+  </si>
+  <si>
+    <t>2025119002</t>
+  </si>
+  <si>
+    <t>2138113495</t>
+  </si>
+  <si>
+    <t>2022984571</t>
+  </si>
+  <si>
+    <t>2128782413</t>
+  </si>
+  <si>
+    <t>6509154986</t>
+  </si>
+  <si>
+    <t>7029169410</t>
+  </si>
+  <si>
+    <t>2017148710</t>
+  </si>
+  <si>
+    <t>3056599750</t>
+  </si>
+  <si>
+    <t>6507207823</t>
+  </si>
+  <si>
+    <t>2132469432</t>
+  </si>
+  <si>
+    <t>2023167731</t>
+  </si>
+  <si>
+    <t>8184682390</t>
+  </si>
+  <si>
+    <t>6177132220</t>
+  </si>
+  <si>
+    <t>6504150598</t>
+  </si>
+  <si>
+    <t>6503679197</t>
+  </si>
+  <si>
+    <t>7028570064</t>
+  </si>
+  <si>
+    <t>7023208073</t>
+  </si>
+  <si>
+    <t>6504439600</t>
+  </si>
+  <si>
+    <t>2137117718</t>
+  </si>
+  <si>
+    <t>6463191356</t>
+  </si>
+  <si>
+    <t>2137107297</t>
+  </si>
+  <si>
+    <t>4159172025</t>
+  </si>
+  <si>
+    <t>6462239519</t>
+  </si>
+  <si>
+    <t>4158531165</t>
+  </si>
+  <si>
+    <t>2126179376</t>
+  </si>
+  <si>
+    <t>3053196539</t>
+  </si>
+  <si>
+    <t>2012204789</t>
+  </si>
+  <si>
+    <t>6502997442</t>
+  </si>
+  <si>
+    <t>2022182050</t>
+  </si>
+  <si>
+    <t>7025168522</t>
+  </si>
+  <si>
+    <t>6467638106</t>
+  </si>
+  <si>
+    <t>6463163019</t>
+  </si>
+  <si>
+    <t>7026201965</t>
+  </si>
+  <si>
+    <t>2026304005</t>
+  </si>
+  <si>
+    <t>2137596205</t>
+  </si>
+  <si>
+    <t>6178255950</t>
+  </si>
+  <si>
+    <t>4154183017</t>
+  </si>
+  <si>
+    <t>8189108628</t>
+  </si>
+  <si>
+    <t>2026959789</t>
+  </si>
+  <si>
+    <t>4157214652</t>
+  </si>
+  <si>
+    <t>4159733321</t>
+  </si>
+  <si>
+    <t>2128943213</t>
+  </si>
+  <si>
+    <t>6509180497</t>
+  </si>
+  <si>
+    <t>3122401915</t>
+  </si>
+  <si>
+    <t>7023156976</t>
+  </si>
+  <si>
+    <t>8182874344</t>
+  </si>
+  <si>
+    <t>8186154146</t>
+  </si>
+  <si>
+    <t>2139210079</t>
+  </si>
+  <si>
+    <t>4154182934</t>
+  </si>
+  <si>
+    <t>6502483408</t>
+  </si>
+  <si>
+    <t>2014116705</t>
+  </si>
+  <si>
+    <t>6173153261</t>
+  </si>
+  <si>
+    <t>4155688126</t>
+  </si>
+  <si>
+    <t>3122956458</t>
+  </si>
+  <si>
+    <t>2029167189</t>
+  </si>
+  <si>
+    <t>2013908542</t>
+  </si>
+  <si>
+    <t>2012249710</t>
+  </si>
+  <si>
+    <t>4155279478</t>
+  </si>
+  <si>
+    <t>3124994782</t>
+  </si>
+  <si>
+    <t>3052934424</t>
+  </si>
+  <si>
+    <t>3057174479</t>
+  </si>
+  <si>
+    <t>7029806973</t>
+  </si>
+  <si>
+    <t>7027184768</t>
+  </si>
+  <si>
+    <t>4159668267</t>
+  </si>
+  <si>
+    <t>3126174152</t>
+  </si>
+  <si>
+    <t>2018341591</t>
+  </si>
+  <si>
+    <t>3129369367</t>
+  </si>
+  <si>
+    <t>4154117998</t>
+  </si>
+  <si>
+    <t>6172122738</t>
+  </si>
+  <si>
+    <t>3054621936</t>
+  </si>
+  <si>
+    <t>6466977070</t>
+  </si>
+  <si>
+    <t>2135177172</t>
+  </si>
+  <si>
+    <t>2019547415</t>
+  </si>
+  <si>
+    <t>4155199327</t>
+  </si>
+  <si>
+    <t>4159153334</t>
+  </si>
+  <si>
+    <t>2013115650</t>
+  </si>
+  <si>
+    <t>2132723365</t>
+  </si>
+  <si>
+    <t>4158178266</t>
+  </si>
+  <si>
+    <t>6507169024</t>
+  </si>
+  <si>
+    <t>4155202585</t>
+  </si>
+  <si>
+    <t>2018459063</t>
+  </si>
+  <si>
+    <t>6465147529</t>
+  </si>
+  <si>
+    <t>3058886473</t>
+  </si>
+  <si>
+    <t>6172200577</t>
+  </si>
+  <si>
+    <t>3053793082</t>
+  </si>
+  <si>
+    <t>3058175866</t>
+  </si>
+  <si>
+    <t>4154382372</t>
+  </si>
+  <si>
+    <t>3128848704</t>
+  </si>
+  <si>
+    <t>2128566388</t>
+  </si>
+  <si>
+    <t>7023157590</t>
+  </si>
+  <si>
+    <t>7026395125</t>
+  </si>
+  <si>
+    <t>3058616349</t>
+  </si>
+  <si>
+    <t>3052127030</t>
+  </si>
+  <si>
+    <t>6179762506</t>
+  </si>
+  <si>
+    <t>2014170039</t>
+  </si>
+  <si>
+    <t>2138120384</t>
+  </si>
+  <si>
+    <t>6173353576</t>
+  </si>
+  <si>
+    <t>2027128410</t>
+  </si>
+  <si>
+    <t>8184130835</t>
+  </si>
+  <si>
+    <t>3056181710</t>
+  </si>
+  <si>
+    <t>6465400553</t>
+  </si>
+  <si>
+    <t>3058144369</t>
+  </si>
+  <si>
+    <t>6463457714</t>
+  </si>
+  <si>
+    <t>3054203994</t>
+  </si>
+  <si>
+    <t>7022651869</t>
+  </si>
+  <si>
+    <t>6468104817</t>
+  </si>
+  <si>
+    <t>6502189229</t>
+  </si>
+  <si>
+    <t>8185257428</t>
+  </si>
+  <si>
+    <t>3122153689</t>
+  </si>
+  <si>
+    <t>3056176914</t>
+  </si>
+  <si>
+    <t>4153208538</t>
+  </si>
+  <si>
+    <t>3058109355</t>
+  </si>
+  <si>
+    <t>8189183265</t>
+  </si>
+  <si>
+    <t>2126205437</t>
+  </si>
+  <si>
+    <t>2012174637</t>
+  </si>
+  <si>
+    <t>3058126200</t>
+  </si>
+  <si>
+    <t>6469660756</t>
+  </si>
+  <si>
+    <t>3128635503</t>
+  </si>
+  <si>
+    <t>3053685861</t>
+  </si>
+  <si>
+    <t>4152108256</t>
+  </si>
+  <si>
+    <t>2019127622</t>
+  </si>
+  <si>
+    <t>6508685277</t>
+  </si>
+  <si>
+    <t>4155211489</t>
+  </si>
+  <si>
+    <t>2135148955</t>
+  </si>
+  <si>
+    <t>3123142166</t>
+  </si>
+  <si>
+    <t>2132144203</t>
+  </si>
+  <si>
+    <t>2132149789</t>
+  </si>
+  <si>
+    <t>2022189409</t>
+  </si>
+  <si>
+    <t>8187304047</t>
+  </si>
+  <si>
+    <t>6179862730</t>
+  </si>
+  <si>
+    <t>2027119020</t>
+  </si>
+  <si>
+    <t>6173155067</t>
+  </si>
+  <si>
+    <t>6177105963</t>
+  </si>
+  <si>
+    <t>6504127109</t>
+  </si>
+  <si>
+    <t>6172207110</t>
+  </si>
+  <si>
+    <t>8186440509</t>
+  </si>
+  <si>
+    <t>3058156321</t>
+  </si>
+  <si>
+    <t>3057153673</t>
+  </si>
+  <si>
+    <t>6464125180</t>
+  </si>
+  <si>
+    <t>2029169614</t>
+  </si>
+  <si>
+    <t>3129100475</t>
+  </si>
+  <si>
+    <t>3124197237</t>
+  </si>
+  <si>
+    <t>6177120813</t>
+  </si>
+  <si>
+    <t>2024118262</t>
+  </si>
+  <si>
+    <t>2123881320</t>
+  </si>
+  <si>
+    <t>2125170734</t>
+  </si>
+  <si>
+    <t>2025144282</t>
+  </si>
+  <si>
+    <t>6463122908</t>
+  </si>
+  <si>
+    <t>8189187461</t>
+  </si>
+  <si>
+    <t>2125145339</t>
+  </si>
+  <si>
+    <t>6179115848</t>
+  </si>
+  <si>
+    <t>2028165173</t>
+  </si>
+  <si>
+    <t>2122819735</t>
+  </si>
+  <si>
+    <t>3053325081</t>
+  </si>
+  <si>
+    <t>2016115168</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -66,18 +1679,314 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -397,128 +2306,3479 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="3" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>PHONE_NUMBER</v>
-      </c>
-      <c r="B1" t="str">
-        <v>OTP</v>
-      </c>
-      <c r="C1" t="str">
-        <v>SEARCH_KEYWORD</v>
-      </c>
-      <c r="D1" t="str">
-        <v>PRODUCT_NAME</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>2124567891</v>
-      </c>
-      <c r="B2" t="str">
-        <v>1111</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Truly Free Laundry Washing</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Truly Free Laundry Washing Machine Cleaner - Wash &amp; Cleans Front Load &amp; Top Load Washers -Tub Cleaner &amp; Deodorizer (1-Use)</v>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D2"/>
+    <ignoredError sqref="A1:D2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>COUNTRY_CODE</v>
-      </c>
-      <c r="B1" t="str">
-        <v>OTP</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>IN</v>
-      </c>
-      <c r="B2" t="str">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>US</v>
-      </c>
-      <c r="B3" t="str">
-        <v>1111</v>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B3"/>
+    <ignoredError sqref="A1:B3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="4" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>COUNTRY_CODE</v>
-      </c>
-      <c r="B1" t="str">
-        <v>OTP</v>
-      </c>
-      <c r="C1" t="str">
-        <v>SEARCH_KEYWORD</v>
-      </c>
-      <c r="D1" t="str">
-        <v>PRODUCT_NAME</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>US</v>
-      </c>
-      <c r="B2" t="str">
-        <v>1111</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Lip balm</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Purely Peppermint Lip Balm  0.15 oz</v>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D2"/>
+    <ignoredError sqref="A1:D2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B413"/>
+  <sheetViews>
+    <sheetView topLeftCell="A404" workbookViewId="0">
+      <selection activeCell="G423" sqref="G423"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="16.5833333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.66666666666667" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B74" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B75" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B76" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B77" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B78" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B79" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B80" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B82" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B83" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B84" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B85" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B86" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B87" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B88" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B89" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B90" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B91" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B92" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B93" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B94" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B95" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B96" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B97" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B98" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B99" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B100" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B101" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B102" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B103" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B104" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B105" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B106" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B107" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B108" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B109" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B110" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B111" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B112" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B113" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B114" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B115" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B116" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B117" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B118" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B119" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B120" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B121" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B122" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B123" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B124" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B125" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B126" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B127" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B128" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B129" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B130" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B131" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B132" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B133" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B134" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B135" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B136" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B137" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B138" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B139" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B140" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B141" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B142" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B143" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B144" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B145" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B146" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B147" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B148" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B149" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B150" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B151" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B152" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B153" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B154" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B155" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B156" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B157" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B158" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B159" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B160" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B161" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B162" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B163" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B164" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B165" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B166" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B167" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B168" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B169" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B170" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B171" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B172" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B173" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B174" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B175" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B176" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B177" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B178" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B179" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B180" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B181" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B182" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B183" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B184" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B185" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B186" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B187" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B188" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B189" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B190" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B191" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B192" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B193" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B194" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B195" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B196" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B197" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B198" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B199" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B200" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B201" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B202" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B203" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B204" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B205" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B206" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B207" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B208" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B209" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B210" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B211" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B212" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B213" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B214" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B215" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B216" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B217" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B218" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B219" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B220" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B221" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B222" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B223" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B224" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B225" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B226" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B227" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B228" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B229" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B230" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B231" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B232" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B233" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B234" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B235" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B236" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B237" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B238" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B239" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B240" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B241" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B242" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B243" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B244" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B245" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B246" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B247" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B248" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B249" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B250" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B251" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B252" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B253" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B254" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B255" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B256" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B257" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B258" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B259" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B260" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B261" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B262" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B263" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B264" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B265" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B266" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B267" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B268" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B269" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B270" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B271" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B272" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B273" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B274" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B275" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B276" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B277" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B278" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B279" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B280" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B281" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B282" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B283" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B284" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B285" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B286" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B287" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B288" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B289" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B290" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B291" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B292" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B293" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B294" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B295" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B296" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B297" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B298" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B299" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B300" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B301" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B302" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B303" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B304" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B305" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B306" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B307" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B308" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B309" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B310" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B311" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B312" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B313" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B314" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B315" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B316" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B317" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B318" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B319" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B320" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B321" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B322" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B323" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B324" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B325" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B326" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B327" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B328" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B329" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B330" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B331" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B332" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B333" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B334" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B335" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B336" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B337" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B338" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B339" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B340" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B341" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B342" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B343" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B344" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B345" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B346" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B347" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B348" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B349" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B350" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B351" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B352" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B353" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B354" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B355" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B356" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B357" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B358" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B359" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B360" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B361" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B362" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B363" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B364" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B365" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B366" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B367" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B368" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B369" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B370" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B371" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B372" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B373" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B374" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B375" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B376" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B377" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B378" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B379" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B380" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B381" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B382" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B383" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B384" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B385" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B386" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B387" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B388" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B389" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B390" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B391" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B392" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B393" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B394" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B395" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B396" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B397" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B398" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B399" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B400" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B401" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B402" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B403" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B404" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B405" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B406" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B407" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B408" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B409" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B410" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B411" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B412" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B413" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>